--- a/DETALLE_CAJA_ID3.xlsx
+++ b/DETALLE_CAJA_ID3.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -32,15 +32,55 @@
   </si>
   <si>
     <t>GASTO</t>
+  </si>
+  <si>
+    <t>Jose Luis Guerrero Leguizamon</t>
+  </si>
+  <si>
+    <t>Efectivo (35millones) Ing. Munoz</t>
+  </si>
+  <si>
+    <t>DETALLE DE GASTOS</t>
+  </si>
+  <si>
+    <t>CONDICION</t>
+  </si>
+  <si>
+    <t>MONTO</t>
+  </si>
+  <si>
+    <t>EXENTAS</t>
+  </si>
+  <si>
+    <t>IVA 10%</t>
+  </si>
+  <si>
+    <t>IVA 5%</t>
+  </si>
+  <si>
+    <t>GASTO REAL</t>
+  </si>
+  <si>
+    <t>PROVEEDOR</t>
+  </si>
+  <si>
+    <t>CONTADO</t>
+  </si>
+  <si>
+    <t>Flete</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt formatCode="#,##0.00; (#,##0.00); -" numFmtId="164"/>
     <numFmt formatCode="#,##0; (#,##0); -" numFmtId="165"/>
+    <numFmt formatCode="[$-409]m/d/yy" numFmtId="166"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -70,38 +110,138 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="165"/>
     <xf applyFont="1" fontId="0" applyFill="1" fillId="2"/>
+    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="166"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>25569</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>3800000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4">
+        <v>43628</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>9090.91</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/DETALLE_CAJA_ID3.xlsx
+++ b/DETALLE_CAJA_ID3.xlsx
@@ -122,125 +122,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
+    <row r="1" spans="3:4">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="3:4">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>25569</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="3:4">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="D3" s="1" t="n">
         <v>3800000</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="3:4">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="3:4">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="3:4">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="1" t="s">
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="2:10">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4">
+    <row r="11" spans="2:10">
+      <c r="B11" s="4">
         <v>43628</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="D11" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
         <v>9090.91</v>
       </c>
-      <c r="F11" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
